--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsa\Practice_Selenium\TestAutomationEcommerceSite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5FE5A8-7B7A-452E-A01D-CCB4ADD7CE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED0E97-DBB3-4055-908F-E58EF5EB47FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{03A41125-3342-46AB-A804-674B77AA42A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>samsal81@usa.com</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/index.php</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -408,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9A2468-F0FA-4325-9BDE-6715FD991D42}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -438,4 +447,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4177DE8F-9961-4AE3-9C3A-7230ED34224B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsa\Practice_Selenium\TestAutomationEcommerceSite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED0E97-DBB3-4055-908F-E58EF5EB47FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD9BAB7-F488-4B49-B0E4-5AE23F8A3D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{03A41125-3342-46AB-A804-674B77AA42A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{03A41125-3342-46AB-A804-674B77AA42A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -44,6 +45,78 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Selenium inc</t>
+  </si>
+  <si>
+    <t>1568 Mulbary dr</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>aFirstName</t>
+  </si>
+  <si>
+    <t>aLastName</t>
   </si>
 </sst>
 </file>
@@ -95,9 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9A2468-F0FA-4325-9BDE-6715FD991D42}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -456,6 +530,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -470,4 +547,130 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951CD3CF-D944-4742-876B-8DB5A3112CCD}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1987</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>75648</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsa\Practice_Selenium\TestAutomationEcommerceSite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD9BAB7-F488-4B49-B0E4-5AE23F8A3D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92127CAE-6831-47C4-8F0E-2F9756C5C1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{03A41125-3342-46AB-A804-674B77AA42A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{03A41125-3342-46AB-A804-674B77AA42A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginInfo" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9A2468-F0FA-4325-9BDE-6715FD991D42}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951CD3CF-D944-4742-876B-8DB5A3112CCD}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
